--- a/trusty-db-read/balance_rule_result.xlsx
+++ b/trusty-db-read/balance_rule_result.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +411,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -660,13 +660,13 @@
         <v>302</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -772,13 +772,13 @@
         <v>439</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -2088,13 +2088,13 @@
         <v>663</v>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="b">
         <v>1</v>
       </c>
       <c r="D122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2701,21 +2701,21 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B167" t="b">
         <v>1</v>
@@ -2729,21 +2729,21 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B169" t="b">
         <v>0</v>
@@ -2757,13 +2757,13 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B170" t="b">
         <v>0</v>
       </c>
       <c r="C170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170" t="b">
         <v>0</v>
@@ -2771,13 +2771,13 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B171" t="b">
         <v>0</v>
       </c>
       <c r="C171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B172" t="b">
         <v>0</v>
@@ -2799,16 +2799,72 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1">
+        <v>813</v>
+      </c>
+      <c r="B173" t="b">
+        <v>0</v>
+      </c>
+      <c r="C173" t="b">
+        <v>0</v>
+      </c>
+      <c r="D173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>814</v>
       </c>
-      <c r="B173" t="b">
-        <v>1</v>
-      </c>
-      <c r="C173" t="b">
-        <v>1</v>
-      </c>
-      <c r="D173" t="b">
-        <v>1</v>
+      <c r="B174" t="b">
+        <v>1</v>
+      </c>
+      <c r="C174" t="b">
+        <v>1</v>
+      </c>
+      <c r="D174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>820</v>
+      </c>
+      <c r="B175" t="b">
+        <v>0</v>
+      </c>
+      <c r="C175" t="b">
+        <v>0</v>
+      </c>
+      <c r="D175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>822</v>
+      </c>
+      <c r="B176" t="b">
+        <v>0</v>
+      </c>
+      <c r="C176" t="b">
+        <v>1</v>
+      </c>
+      <c r="D176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>826</v>
+      </c>
+      <c r="B177" t="b">
+        <v>0</v>
+      </c>
+      <c r="C177" t="b">
+        <v>0</v>
+      </c>
+      <c r="D177" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
